--- a/NearFieldScannerParts.xlsx
+++ b/NearFieldScannerParts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/jast5436_colorado_edu/Documents/Job/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobstewart/git/NearFieldScanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{2ECD102F-3B9D-BD4C-AFFB-E061C4142259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{717BCE50-33B4-1E40-A0CD-DB1064130894}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363C1E9C-25A2-EA4A-ABF2-2626A2704B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16640" xr2:uid="{6938E821-2B77-A345-ADF5-9B5A6599B473}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Item</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>https://www.amazon.com/Flexible-Connectors-Screwdriver-Engravers-Woodworking/dp/B09JCD362N</t>
+  </si>
+  <si>
+    <t>https://openbuildspartstore.com/v-slot-40x40-linear-rail/</t>
+  </si>
+  <si>
+    <t>1m V-Slot 40x40</t>
+  </si>
+  <si>
+    <t>Extended Open Gusset (5537T663)</t>
   </si>
 </sst>
 </file>
@@ -531,7 +540,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,7 +587,7 @@
       </c>
       <c r="H2">
         <f>SUM(E2:E31)</f>
-        <v>1907.96</v>
+        <v>2007.96</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -817,36 +826,62 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <f>54/2</f>
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
       <c r="E16">
         <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <f>46/4</f>
+        <v>11.5</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -861,6 +896,7 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{CA8313DF-B007-0841-B564-C74993DDA459}"/>
     <hyperlink ref="B11" r:id="rId3" xr:uid="{7E463B31-6A69-8543-867E-C54E86C6A4B6}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{95117905-1CF7-3D47-AB39-C5C56D248DA9}"/>
+    <hyperlink ref="B17" r:id="rId5" xr:uid="{ABDA6D6E-2D25-2D40-92C7-3E6DAB88EAAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
